--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>model type</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>first_try</t>
+  </si>
+  <si>
+    <t>page/record</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>record</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,18 +427,19 @@
     <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -440,37 +450,40 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,98 +493,133 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.05</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
       </c>
       <c r="H2">
         <v>16</v>
       </c>
       <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
         <v>3.1314782798290197E-2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.9022734165191598E-3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.96219600000000005</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.95932899999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0.05</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>7.9865917559999999E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.89944000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.89479797271749995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.05</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="b">
+      <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="b">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>model type</t>
   </si>
@@ -26,18 +26,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>LSTM</t>
-  </si>
-  <si>
     <t>bidirectional</t>
   </si>
   <si>
-    <t>LSTM-2layer</t>
-  </si>
-  <si>
-    <t>LSTM CRF</t>
-  </si>
-  <si>
     <t>Best epoch</t>
   </si>
   <si>
@@ -65,16 +56,61 @@
     <t>alias</t>
   </si>
   <si>
-    <t>first_try</t>
-  </si>
-  <si>
     <t>page/record</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>record</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>encoder</t>
+  </si>
+  <si>
+    <t>bert</t>
+  </si>
+  <si>
+    <t>lstm</t>
+  </si>
+  <si>
+    <t>batch_test</t>
+  </si>
+  <si>
+    <t>correct ratio train</t>
+  </si>
+  <si>
+    <t>correct ratio cv</t>
+  </si>
+  <si>
+    <t>entity correct ratio train</t>
+  </si>
+  <si>
+    <t>entity correct ratio cv</t>
+  </si>
+  <si>
+    <t>data size</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>polyglot MCP</t>
+  </si>
+  <si>
+    <t>lstmcrf</t>
+  </si>
+  <si>
+    <t>train loss</t>
+  </si>
+  <si>
+    <t>cv loss</t>
+  </si>
+  <si>
+    <t>0.284485177(bug fixed)</t>
   </si>
 </sst>
 </file>
@@ -416,215 +452,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" customWidth="1"/>
+    <col min="17" max="17" width="26.36328125" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" customWidth="1"/>
+    <col min="19" max="19" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>3.1314782798290197E-2</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>4.9022734165191598E-3</v>
-      </c>
-      <c r="L2">
-        <v>0.96219600000000005</v>
-      </c>
-      <c r="M2">
-        <v>0.95932899999999999</v>
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>0.12224528699999999</v>
+      </c>
+      <c r="P2">
+        <v>0.12159761018</v>
+      </c>
+      <c r="Q2">
+        <v>5.1228999999999997E-2</v>
+      </c>
+      <c r="R2">
+        <v>5.1679857000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="b">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
       <c r="H3">
-        <v>20</v>
+        <v>2E-3</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>7.9865917559999999E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.89944000000000002</v>
-      </c>
-      <c r="M3">
-        <v>0.89479797271749995</v>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>0.2820066</v>
+      </c>
+      <c r="P3">
+        <v>0.28327128896999998</v>
+      </c>
+      <c r="Q3">
+        <v>9.1211799999999996E-2</v>
+      </c>
+      <c r="R3">
+        <v>9.0816999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="b">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2E-3</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>0.27743916400000002</v>
+      </c>
+      <c r="P4">
+        <v>0.27400341239999998</v>
+      </c>
+      <c r="Q4">
+        <v>8.7652567000000001E-2</v>
+      </c>
+      <c r="R4">
+        <v>8.7831548999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.05</v>
-      </c>
-      <c r="G4">
+      <c r="H5">
+        <v>2E-3</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>0.27927225999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.27846284999999998</v>
+      </c>
+      <c r="Q5">
+        <v>9.2632479000000004E-2</v>
+      </c>
+      <c r="R5">
+        <v>9.2950199999999997E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="b">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="H6">
+        <v>2E-3</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>0.27882899999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.27958739999999999</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6">
+        <v>0.28159775096599998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>model type</t>
   </si>
@@ -111,13 +111,22 @@
   </si>
   <si>
     <t>0.284485177(bug fixed)</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>欠拟合0.0635919</t>
+  </si>
+  <si>
+    <t>lstm-crf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +134,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +501,8 @@
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
     <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.453125" customWidth="1"/>
     <col min="16" max="16" width="17.26953125" customWidth="1"/>
@@ -760,6 +792,158 @@
       </c>
       <c r="R6">
         <v>0.28159775096599998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2E-3</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>2.6189500000000001E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2E-3</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2E-3</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2E-3</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>model type</t>
   </si>
@@ -120,13 +120,25 @@
   </si>
   <si>
     <t>lstm-crf</t>
+  </si>
+  <si>
+    <t>0.7695（非cvloss最低）</t>
+  </si>
+  <si>
+    <t>Page Model adjustment</t>
+  </si>
+  <si>
+    <t>0.834（最后一轮）</t>
+  </si>
+  <si>
+    <t>没算出来</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +159,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,11 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,7 +532,7 @@
     <col min="13" max="13" width="18.453125" customWidth="1"/>
     <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.453125" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" customWidth="1"/>
+    <col min="16" max="16" width="25.26953125" customWidth="1"/>
     <col min="17" max="17" width="26.36328125" customWidth="1"/>
     <col min="18" max="18" width="19.81640625" customWidth="1"/>
     <col min="19" max="19" width="22.26953125" bestFit="1" customWidth="1"/>
@@ -858,6 +885,21 @@
       <c r="K9">
         <v>50</v>
       </c>
+      <c r="L9">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="M9">
+        <v>6.3149738999999996E-2</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.79850923419999997</v>
+      </c>
+      <c r="P9">
+        <v>0.78533897470000003</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -887,6 +929,21 @@
       <c r="K10">
         <v>50</v>
       </c>
+      <c r="L10">
+        <v>28.7268574</v>
+      </c>
+      <c r="M10">
+        <v>10.298999999999999</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0.80765600000000004</v>
+      </c>
+      <c r="P10">
+        <v>0.79395800000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
@@ -914,7 +971,28 @@
         <v>4</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>0.29234789999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.57277294999999995</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>0.77044400000000002</v>
+      </c>
+      <c r="P11">
+        <v>0.76546593730000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.71631615999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.71554799999999996</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -944,6 +1022,228 @@
       </c>
       <c r="K12">
         <v>50</v>
+      </c>
+      <c r="L12">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.85976E-2</v>
+      </c>
+      <c r="N12">
+        <v>29</v>
+      </c>
+      <c r="O12">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2E-3</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>28.7268574</v>
+      </c>
+      <c r="M14">
+        <v>10.298999999999999</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>0.80765600000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.79395800000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>13.889988000000001</v>
+      </c>
+      <c r="M15">
+        <v>13.306174</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>66</v>
+      </c>
+      <c r="O16">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="P16">
+        <v>0.784335334</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2E-3</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>0.29234789999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.57277294999999995</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>0.77044400000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.76546593730000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.71631615999999998</v>
+      </c>
+      <c r="R19">
+        <v>0.71554799999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2E-3</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="R20">
+        <v>0.71554799999999996</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>model type</t>
   </si>
@@ -132,13 +132,22 @@
   </si>
   <si>
     <t>没算出来</t>
+  </si>
+  <si>
+    <t>20200224_25</t>
+  </si>
+  <si>
+    <t>layer num</t>
+  </si>
+  <si>
+    <t>Record Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +175,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,13 +221,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,24 +549,25 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.453125" customWidth="1"/>
-    <col min="16" max="16" width="25.26953125" customWidth="1"/>
-    <col min="17" max="17" width="26.36328125" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" customWidth="1"/>
-    <col min="19" max="19" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" customWidth="1"/>
+    <col min="17" max="17" width="25.26953125" customWidth="1"/>
+    <col min="18" max="18" width="26.36328125" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -568,52 +593,55 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
       <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
       <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -635,29 +663,29 @@
       <c r="H2">
         <v>0.05</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.12224528699999999</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.12159761018</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5.1228999999999997E-2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5.1679857000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -676,29 +704,29 @@
       <c r="H3">
         <v>2E-3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
       <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.2820066</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.28327128896999998</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9.1211799999999996E-2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.0816999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>26</v>
       </c>
@@ -717,29 +745,29 @@
       <c r="H4">
         <v>2E-3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
       <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.27743916400000002</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.27400341239999998</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8.7652567000000001E-2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8.7831548999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -758,29 +786,29 @@
       <c r="H5">
         <v>2E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
       <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.27927225999999999</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.27846284999999998</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9.2632479000000004E-2</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>9.2950199999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -799,30 +827,30 @@
       <c r="H6">
         <v>2E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
       <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.27882899999999999</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.27958739999999999</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.28159775096599998</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -841,23 +869,23 @@
       <c r="H8">
         <v>2E-3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>16</v>
       </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
       <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.6189500000000001E-2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -876,32 +904,32 @@
       <c r="H9">
         <v>2E-3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>32</v>
       </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9">
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4.2110000000000002E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6.3149738999999996E-2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.79850923419999997</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.78533897470000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -920,32 +948,32 @@
       <c r="H10">
         <v>2E-3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10">
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28.7268574</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>10.298999999999999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.80765600000000004</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.79395800000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -964,38 +992,38 @@
       <c r="H11">
         <v>2E-3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>16</v>
       </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
       <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.29234789999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.57277294999999995</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>24</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.77044400000000002</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.76546593730000001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.71631615999999998</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.71554799999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -1014,37 +1042,37 @@
       <c r="H12">
         <v>2E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>16</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5.85976E-2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>29</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.80510000000000004</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -1064,31 +1092,37 @@
         <v>2E-3</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>4</v>
-      </c>
-      <c r="K14">
+      <c r="K14" s="3">
+        <v>4</v>
+      </c>
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>28.7268574</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10.298999999999999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.80765600000000004</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.79395800000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>20200229</v>
+      </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -1104,32 +1138,23 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
+        <v>2E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>16</v>
       </c>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15">
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="L15">
-        <v>13.889988000000001</v>
-      </c>
-      <c r="M15">
-        <v>13.306174</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1148,78 +1173,76 @@
       <c r="H16" s="2">
         <v>1E-3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2"/>
+      <c r="J16">
         <v>16</v>
       </c>
-      <c r="J16" s="3">
-        <v>4</v>
-      </c>
-      <c r="K16">
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>13.889988000000001</v>
+      </c>
+      <c r="N16">
+        <v>13.306174</v>
+      </c>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4</v>
+      </c>
+      <c r="L17">
         <v>66</v>
       </c>
-      <c r="O16">
+      <c r="P17">
         <v>0.85229999999999995</v>
       </c>
-      <c r="P16">
+      <c r="Q17">
         <v>0.784335334</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2E-3</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>30</v>
-      </c>
-      <c r="L19">
-        <v>0.29234789999999999</v>
-      </c>
-      <c r="M19">
-        <v>0.57277294999999995</v>
-      </c>
-      <c r="N19">
-        <v>24</v>
-      </c>
-      <c r="O19">
-        <v>0.77044400000000002</v>
-      </c>
-      <c r="P19">
-        <v>0.76546593730000001</v>
-      </c>
-      <c r="Q19">
-        <v>0.71631615999999998</v>
-      </c>
-      <c r="R19">
-        <v>0.71554799999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1233,17 +1256,135 @@
       <c r="H20">
         <v>2E-3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>16</v>
       </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
       <c r="K20">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>0.29234789999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.57277294999999995</v>
+      </c>
+      <c r="O20">
+        <v>24</v>
+      </c>
+      <c r="P20">
+        <v>0.77044400000000002</v>
+      </c>
+      <c r="Q20">
+        <v>0.76546593730000001</v>
       </c>
       <c r="R20">
+        <v>0.71631615999999998</v>
+      </c>
+      <c r="S20">
         <v>0.71554799999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2E-3</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>9.3634310000000003</v>
+      </c>
+      <c r="N21">
+        <v>3.5360999999999998</v>
+      </c>
+      <c r="O21">
+        <v>79</v>
+      </c>
+      <c r="P21">
+        <v>0.77962955</v>
+      </c>
+      <c r="Q21">
+        <v>0.768756789</v>
+      </c>
+      <c r="R21">
+        <v>0.88327929999999999</v>
+      </c>
+      <c r="S21">
+        <v>0.87460769000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>20200227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>87</v>
+      </c>
+      <c r="M22">
+        <v>8.7233319999999992</v>
+      </c>
+      <c r="N22">
+        <v>3.5725799999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.79261897000000003</v>
+      </c>
+      <c r="Q22">
+        <v>0.77853329999999998</v>
+      </c>
+      <c r="R22">
+        <v>0.89031136</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>model type</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>Record Model</t>
+  </si>
+  <si>
+    <t>polyglot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,6 +253,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,10 +559,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,7 +572,7 @@
     <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
@@ -1153,6 +1180,21 @@
       <c r="L15">
         <v>50</v>
       </c>
+      <c r="M15">
+        <v>18.235810000000001</v>
+      </c>
+      <c r="N15">
+        <v>8.7282989999999998</v>
+      </c>
+      <c r="O15">
+        <v>49</v>
+      </c>
+      <c r="P15">
+        <v>0.87408399999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.82613400000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
@@ -1385,6 +1427,227 @@
       </c>
       <c r="R22">
         <v>0.89031136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>20200301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>82</v>
+      </c>
+      <c r="O23">
+        <v>74</v>
+      </c>
+      <c r="P23">
+        <v>0.79552330000000004</v>
+      </c>
+      <c r="Q23">
+        <v>0.78578700000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.89349478999999998</v>
+      </c>
+      <c r="S23">
+        <v>0.88479154900000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>20200305</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>141</v>
+      </c>
+      <c r="M24">
+        <v>7.5662240000000001</v>
+      </c>
+      <c r="N24">
+        <v>3.190741</v>
+      </c>
+      <c r="O24">
+        <v>115</v>
+      </c>
+      <c r="P24">
+        <v>0.79114865999999995</v>
+      </c>
+      <c r="Q24">
+        <v>0.77766900000000005</v>
+      </c>
+      <c r="R24">
+        <v>0.88866647889999995</v>
+      </c>
+      <c r="S24">
+        <v>0.87588900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>202003012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2E-3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <v>8.1295697899999997</v>
+      </c>
+      <c r="N26">
+        <v>4.5420870000000004</v>
+      </c>
+      <c r="O26">
+        <v>60</v>
+      </c>
+      <c r="P26">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="Q26">
+        <v>0.65255275999999995</v>
+      </c>
+      <c r="R26">
+        <v>0.81064076799999996</v>
+      </c>
+      <c r="S26">
+        <v>0.80737700000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>202003014</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>64</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>0.57762796954999995</v>
+      </c>
+      <c r="N27">
+        <v>0.57193222376999997</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>0.57762796954999995</v>
+      </c>
+      <c r="Q27">
+        <v>0.57193222376999997</v>
+      </c>
+      <c r="R27">
+        <v>0.73700476999999998</v>
+      </c>
+      <c r="S27">
+        <v>0.7361482855</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>model type</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>polyglot</t>
+  </si>
+  <si>
+    <t>polyglot + Xingpang</t>
+  </si>
+  <si>
+    <t>shiyi</t>
   </si>
 </sst>
 </file>
@@ -559,12 +565,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>202003012</v>
+        <v>20200312</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>202003014</v>
+        <v>20200315</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1604,8 +1610,8 @@
       <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>42</v>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>14</v>
@@ -1613,8 +1619,8 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="H27">
+        <v>2E-3</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
@@ -1629,24 +1635,124 @@
         <v>50</v>
       </c>
       <c r="M27">
+        <v>7.7440112079999999</v>
+      </c>
+      <c r="N27">
+        <v>4.2294713223900002</v>
+      </c>
+      <c r="O27">
+        <v>37</v>
+      </c>
+      <c r="P27">
+        <v>0.70542587999999995</v>
+      </c>
+      <c r="Q27">
+        <v>0.69721737269999995</v>
+      </c>
+      <c r="R27">
+        <v>0.84236116000000005</v>
+      </c>
+      <c r="S27">
+        <v>0.83683636674999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>20200314</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="O28">
+        <v>50</v>
+      </c>
+      <c r="P28">
         <v>0.57762796954999995</v>
       </c>
-      <c r="N27">
+      <c r="Q28">
         <v>0.57193222376999997</v>
       </c>
-      <c r="O27">
+      <c r="R28">
+        <v>0.73700476999999998</v>
+      </c>
+      <c r="S28">
+        <v>0.7361482855</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>20200316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
         <v>50</v>
       </c>
-      <c r="P27">
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="P30">
         <v>0.57762796954999995</v>
       </c>
-      <c r="Q27">
+      <c r="Q30">
         <v>0.57193222376999997</v>
       </c>
-      <c r="R27">
+      <c r="R30">
         <v>0.73700476999999998</v>
       </c>
-      <c r="S27">
+      <c r="S30">
         <v>0.7361482855</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>model type</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>shiyi</t>
+  </si>
+  <si>
+    <t>bert+Xingpang</t>
   </si>
 </sst>
 </file>
@@ -565,12 +568,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1740,20 +1743,115 @@
       <c r="L30">
         <v>50</v>
       </c>
-      <c r="O30">
-        <v>50</v>
-      </c>
-      <c r="P30">
-        <v>0.57762796954999995</v>
-      </c>
-      <c r="Q30">
-        <v>0.57193222376999997</v>
-      </c>
-      <c r="R30">
-        <v>0.73700476999999998</v>
-      </c>
-      <c r="S30">
-        <v>0.7361482855</v>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>20200317</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>86</v>
+      </c>
+      <c r="M31">
+        <v>8.7654370000000004</v>
+      </c>
+      <c r="N31">
+        <v>5.009177869677</v>
+      </c>
+      <c r="O31">
+        <v>84</v>
+      </c>
+      <c r="P31">
+        <v>0.64842932785322105</v>
+      </c>
+      <c r="Q31">
+        <v>0.6434396337678</v>
+      </c>
+      <c r="R31">
+        <v>0.80613525470000003</v>
+      </c>
+      <c r="S31">
+        <v>0.80385155069000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>20200319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>20200319</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>model type</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>bert+Xingpang</t>
+  </si>
+  <si>
+    <t>bert+MCP</t>
+  </si>
+  <si>
+    <t>polyglot+MCP</t>
   </si>
 </sst>
 </file>
@@ -568,12 +574,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,68 +1550,24 @@
         <v>0.87588900000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>20200312</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2E-3</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26">
-        <v>60</v>
-      </c>
-      <c r="M26">
-        <v>8.1295697899999997</v>
-      </c>
-      <c r="N26">
-        <v>4.5420870000000004</v>
-      </c>
-      <c r="O26">
-        <v>60</v>
-      </c>
-      <c r="P26">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="Q26">
-        <v>0.65255275999999995</v>
-      </c>
-      <c r="R26">
-        <v>0.81064076799999996</v>
-      </c>
-      <c r="S26">
-        <v>0.80737700000000001</v>
-      </c>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>20200319</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25">
+        <v>1E-3</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>20200315</v>
+        <v>20200312</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1614,7 +1576,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>14</v>
@@ -1635,83 +1597,124 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>7.7440112079999999</v>
+        <v>8.1295697899999997</v>
       </c>
       <c r="N27">
-        <v>4.2294713223900002</v>
+        <v>4.5420870000000004</v>
       </c>
       <c r="O27">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="P27">
-        <v>0.70542587999999995</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="Q27">
-        <v>0.69721737269999995</v>
+        <v>0.65255275999999995</v>
       </c>
       <c r="R27">
-        <v>0.84236116000000005</v>
+        <v>0.81064076799999996</v>
       </c>
       <c r="S27">
-        <v>0.83683636674999995</v>
+        <v>0.80737700000000001</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>20200314</v>
+        <v>20200321</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28">
+        <v>132</v>
+      </c>
+      <c r="M28">
+        <v>6.9560854233500002</v>
+      </c>
+      <c r="N28">
+        <v>4.2879479600000003</v>
+      </c>
+      <c r="O28">
+        <v>113</v>
+      </c>
+      <c r="P28">
+        <v>0.71064988380000005</v>
+      </c>
+      <c r="Q28">
+        <v>0.69802699999999995</v>
+      </c>
+      <c r="R28">
+        <v>0.84685446314000001</v>
+      </c>
+      <c r="S28">
+        <v>0.83385164300000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>20200315</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2E-3</v>
+      </c>
+      <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <v>64</v>
       </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
         <v>50</v>
       </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-      <c r="P28">
-        <v>0.57762796954999995</v>
-      </c>
-      <c r="Q28">
-        <v>0.57193222376999997</v>
-      </c>
-      <c r="R28">
-        <v>0.73700476999999998</v>
-      </c>
-      <c r="S28">
-        <v>0.7361482855</v>
+      <c r="M29">
+        <v>7.7440112079999999</v>
+      </c>
+      <c r="N29">
+        <v>4.2294713223900002</v>
+      </c>
+      <c r="O29">
+        <v>37</v>
+      </c>
+      <c r="P29">
+        <v>0.70542587999999995</v>
+      </c>
+      <c r="Q29">
+        <v>0.69721737269999995</v>
+      </c>
+      <c r="R29">
+        <v>0.84236116000000005</v>
+      </c>
+      <c r="S29">
+        <v>0.83683636674999995</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>20200316</v>
+        <v>20200314</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -1719,8 +1722,8 @@
       <c r="D30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>44</v>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>14</v>
@@ -1728,8 +1731,8 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>2E-3</v>
+      <c r="H30" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
@@ -1743,83 +1746,69 @@
       <c r="L30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B31">
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>0.57762796954999995</v>
+      </c>
+      <c r="Q30">
+        <v>0.57193222376999997</v>
+      </c>
+      <c r="R30">
+        <v>0.73700476999999998</v>
+      </c>
+      <c r="S30">
+        <v>0.7361482855</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>20200316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>64</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B33">
         <v>20200317</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>64</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>86</v>
-      </c>
-      <c r="M31">
-        <v>8.7654370000000004</v>
-      </c>
-      <c r="N31">
-        <v>5.009177869677</v>
-      </c>
-      <c r="O31">
-        <v>84</v>
-      </c>
-      <c r="P31">
-        <v>0.64842932785322105</v>
-      </c>
-      <c r="Q31">
-        <v>0.6434396337678</v>
-      </c>
-      <c r="R31">
-        <v>0.80613525470000003</v>
-      </c>
-      <c r="S31">
-        <v>0.80385155069000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>20200319</v>
-      </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
+      <c r="E33" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>14</v>
@@ -1830,27 +1819,127 @@
       <c r="H33" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>20200319</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>86</v>
+      </c>
+      <c r="M33">
+        <v>8.7654370000000004</v>
+      </c>
+      <c r="N33">
+        <v>5.009177869677</v>
+      </c>
+      <c r="O33">
+        <v>84</v>
+      </c>
+      <c r="P33">
+        <v>0.64842932785322105</v>
+      </c>
+      <c r="Q33">
+        <v>0.6434396337678</v>
+      </c>
+      <c r="R33">
+        <v>0.80613525470000003</v>
+      </c>
+      <c r="S33">
+        <v>0.80385155069000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>20200320</v>
+      </c>
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>20200320</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>20200321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>20200324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40">
         <v>1E-3</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -11,6 +11,7 @@
     <sheet name="record" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -259,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +271,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -576,10 +579,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,53 +1447,53 @@
         <v>0.89031136</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23">
+    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
         <v>20200301</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>2E-3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="10">
         <v>32</v>
       </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
         <v>82</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>74</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>0.79552330000000004</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>0.78578700000000001</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>0.89349478999999998</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>0.88479154900000001</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -11,7 +11,6 @@
     <sheet name="record" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -577,12 +576,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1945,6 +1944,32 @@
       <c r="H40">
         <v>1E-3</v>
       </c>
+      <c r="P40">
+        <v>0.82807423144000003</v>
+      </c>
+      <c r="Q40">
+        <v>0.80288931559999999</v>
+      </c>
+      <c r="R40">
+        <v>0.91338317899999999</v>
+      </c>
+      <c r="S40">
+        <v>0.88527444499999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P41">
+        <v>0.81452475999999996</v>
+      </c>
+      <c r="Q41">
+        <v>0.79767613280000005</v>
+      </c>
+      <c r="R41">
+        <v>0.90717009900000001</v>
+      </c>
+      <c r="S41">
+        <v>0.8902756128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +253,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -259,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +291,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,10 +610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,10 +630,10 @@
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" style="15" customWidth="1"/>
     <col min="14" max="14" width="18.453125" customWidth="1"/>
     <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" style="15" customWidth="1"/>
     <col min="17" max="17" width="25.26953125" customWidth="1"/>
     <col min="18" max="18" width="26.36328125" customWidth="1"/>
     <col min="19" max="19" width="19.81640625" customWidth="1"/>
@@ -648,7 +681,7 @@
       <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="N1" t="s">
@@ -657,7 +690,7 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q1" t="s">
@@ -716,7 +749,7 @@
       <c r="L2">
         <v>20</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="15">
         <v>0.12224528699999999</v>
       </c>
       <c r="Q2">
@@ -757,7 +790,7 @@
       <c r="L3">
         <v>30</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="15">
         <v>0.2820066</v>
       </c>
       <c r="Q3">
@@ -798,7 +831,7 @@
       <c r="L4">
         <v>30</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="15">
         <v>0.27743916400000002</v>
       </c>
       <c r="Q4">
@@ -839,7 +872,7 @@
       <c r="L5">
         <v>30</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="15">
         <v>0.27927225999999999</v>
       </c>
       <c r="Q5">
@@ -880,7 +913,7 @@
       <c r="L6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="15">
         <v>0.27882899999999999</v>
       </c>
       <c r="Q6">
@@ -893,7 +926,10 @@
         <v>0.28159775096599998</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>25</v>
@@ -922,7 +958,7 @@
       <c r="L8">
         <v>50</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="15">
         <v>2.6189500000000001E-2</v>
       </c>
       <c r="N8" t="s">
@@ -957,7 +993,7 @@
       <c r="L9">
         <v>50</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="15">
         <v>4.2110000000000002E-2</v>
       </c>
       <c r="N9">
@@ -966,7 +1002,7 @@
       <c r="O9">
         <v>7</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="15">
         <v>0.79850923419999997</v>
       </c>
       <c r="Q9">
@@ -1001,7 +1037,7 @@
       <c r="L10">
         <v>50</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="15">
         <v>28.7268574</v>
       </c>
       <c r="N10">
@@ -1010,7 +1046,7 @@
       <c r="O10">
         <v>9</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="15">
         <v>0.80765600000000004</v>
       </c>
       <c r="Q10">
@@ -1045,7 +1081,7 @@
       <c r="L11">
         <v>30</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="15">
         <v>0.29234789999999999</v>
       </c>
       <c r="N11">
@@ -1054,7 +1090,7 @@
       <c r="O11">
         <v>24</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="15">
         <v>0.77044400000000002</v>
       </c>
       <c r="Q11">
@@ -1095,7 +1131,7 @@
       <c r="L12">
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="15">
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="N12">
@@ -1104,7 +1140,7 @@
       <c r="O12">
         <v>29</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="15">
         <v>0.80510000000000004</v>
       </c>
       <c r="Q12" t="s">
@@ -1115,6 +1151,8 @@
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="M13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
@@ -1147,7 +1185,7 @@
       <c r="L14">
         <v>50</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="15">
         <v>28.7268574</v>
       </c>
       <c r="N14">
@@ -1156,7 +1194,7 @@
       <c r="O14">
         <v>9</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="15">
         <v>0.80765600000000004</v>
       </c>
       <c r="Q14">
@@ -1197,7 +1235,7 @@
       <c r="L15">
         <v>50</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="15">
         <v>18.235810000000001</v>
       </c>
       <c r="N15">
@@ -1206,7 +1244,7 @@
       <c r="O15">
         <v>49</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="15">
         <v>0.87408399999999997</v>
       </c>
       <c r="Q15">
@@ -1242,13 +1280,13 @@
       <c r="L16">
         <v>50</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="15">
         <v>13.889988000000001</v>
       </c>
       <c r="N16">
         <v>13.306174</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="Q16" t="s">
@@ -1284,7 +1322,7 @@
       <c r="L17">
         <v>66</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="15">
         <v>0.85229999999999995</v>
       </c>
       <c r="Q17">
@@ -1295,6 +1333,8 @@
       <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="M19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
@@ -1324,7 +1364,7 @@
       <c r="L20">
         <v>30</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="15">
         <v>0.29234789999999999</v>
       </c>
       <c r="N20">
@@ -1333,7 +1373,7 @@
       <c r="O20">
         <v>24</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="15">
         <v>0.77044400000000002</v>
       </c>
       <c r="Q20">
@@ -1377,7 +1417,7 @@
       <c r="L21">
         <v>80</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="15">
         <v>9.3634310000000003</v>
       </c>
       <c r="N21">
@@ -1386,7 +1426,7 @@
       <c r="O21">
         <v>79</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="15">
         <v>0.77962955</v>
       </c>
       <c r="Q21">
@@ -1430,13 +1470,13 @@
       <c r="L22">
         <v>87</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="15">
         <v>8.7233319999999992</v>
       </c>
       <c r="N22">
         <v>3.5725799999999999</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="15">
         <v>0.79261897000000003</v>
       </c>
       <c r="Q22">
@@ -1480,10 +1520,11 @@
       <c r="L23" s="1">
         <v>82</v>
       </c>
+      <c r="M23" s="16"/>
       <c r="O23" s="1">
         <v>74</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="16">
         <v>0.79552330000000004</v>
       </c>
       <c r="Q23" s="1">
@@ -1530,7 +1571,7 @@
       <c r="L24">
         <v>141</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="15">
         <v>7.5662240000000001</v>
       </c>
       <c r="N24">
@@ -1539,7 +1580,7 @@
       <c r="O24">
         <v>115</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="15">
         <v>0.79114865999999995</v>
       </c>
       <c r="Q24">
@@ -1566,151 +1607,156 @@
     </row>
     <row r="26" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27">
+      <c r="M26" s="19"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12">
         <v>20200312</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
         <v>2E-3</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="13">
         <v>2</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="13">
         <v>64</v>
       </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="12">
+        <v>4</v>
+      </c>
+      <c r="L27" s="12">
         <v>60</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="20">
         <v>8.1295697899999997</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="12">
         <v>4.5420870000000004</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="12">
         <v>60</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="20">
         <v>0.65900000000000003</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="12">
         <v>0.65255275999999995</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="12">
         <v>0.81064076799999996</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="12">
         <v>0.80737700000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B28">
+    <row r="28" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12">
         <v>20200321</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L28">
+      <c r="H28" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="L28" s="12">
         <v>132</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="20">
         <v>6.9560854233500002</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="12">
         <v>4.2879479600000003</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="12">
         <v>113</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="20">
         <v>0.71064988380000005</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="12">
         <v>0.69802699999999995</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="12">
         <v>0.84685446314000001</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="12">
         <v>0.83385164300000003</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B29">
+    <row r="29" spans="2:19" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21">
         <v>20200315</v>
       </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21">
         <v>2E-3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="22">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="22">
         <v>64</v>
       </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="21">
+        <v>4</v>
+      </c>
+      <c r="L29" s="21">
         <v>50</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="24">
         <v>7.7440112079999999</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="21">
         <v>4.2294713223900002</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="21">
         <v>37</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="24">
         <v>0.70542587999999995</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="21">
         <v>0.69721737269999995</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="21">
         <v>0.84236116000000005</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="21">
         <v>0.83683636674999995</v>
       </c>
     </row>
@@ -1751,7 +1797,7 @@
       <c r="O30">
         <v>50</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="15">
         <v>0.57762796954999995</v>
       </c>
       <c r="Q30">
@@ -1833,7 +1879,7 @@
       <c r="L33">
         <v>86</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="15">
         <v>8.7654370000000004</v>
       </c>
       <c r="N33">
@@ -1842,7 +1888,7 @@
       <c r="O33">
         <v>84</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="15">
         <v>0.64842932785322105</v>
       </c>
       <c r="Q33">
@@ -1863,57 +1909,57 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B35">
+    <row r="35" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="15">
         <v>20200320</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B36">
+    <row r="36" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="15">
         <v>20200320</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+    <row r="37" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1928,37 +1974,38 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B40">
+    <row r="40" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
         <v>20200324</v>
       </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>1E-3</v>
       </c>
-      <c r="P40">
+      <c r="M40" s="16"/>
+      <c r="P40" s="16">
         <v>0.82807423144000003</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>0.80288931559999999</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="1">
         <v>0.91338317899999999</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>0.88527444499999997</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P41">
+      <c r="P41" s="15">
         <v>0.81452475999999996</v>
       </c>
       <c r="Q41">
